--- a/학습자료/단답형/객관식_고려_연도(왕)_연도별모음.xlsx
+++ b/학습자료/단답형/객관식_고려_연도(왕)_연도별모음.xlsx
@@ -450,14 +450,14 @@
         <is>
           <t>고려 건국
 흑창 설치
-1. 1318년 : 충숙왕
-2. 918년 : 태조
-3. 958년 : 광종</t>
+1. 918년 : 태조
+2. 1389년 : 창왕
+3. 1123년 : 인종</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 918년 : 태조</t>
+          <t>1, 918년 : 태조</t>
         </is>
       </c>
     </row>
@@ -466,14 +466,14 @@
         <is>
           <t>송악으로 천도
 개경에 시전 설치
-1. 919년 : 태조
-2. 1354년 : 공민왕
-3. 1170년 : 의종</t>
+1. 1279년 : 충렬왕
+2. 919년 : 태조
+3. 1383년 : 우왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 919년 : 태조</t>
+          <t>2, 919년 : 태조</t>
         </is>
       </c>
     </row>
@@ -481,14 +481,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>학보 설치
-1. 918년 : 태조
-2. 1019년 : 현종
-3. 930년 : 태조</t>
+1. 930년 : 태조
+2. 1271년 : 원종
+3. 1281년 : 충렬왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 930년 : 태조</t>
+          <t>1, 930년 : 태조</t>
         </is>
       </c>
     </row>
@@ -496,9 +496,9 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>후삼국 통일
-1. 1260년 : 고종
+1. 976년 : 경종
 2. 936년 : 태조
-3. 996년 : 성종</t>
+3. 986년 : 성종</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -511,14 +511,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>역분전 지급
-1. 1225년 : 고종
-2. 1176년 : 명종
-3. 940년 : 태조</t>
+1. 940년 : 태조
+2. 976년 : 경종
+3. 1044년 : 정종</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 940년 : 태조</t>
+          <t>1, 940년 : 태조</t>
         </is>
       </c>
     </row>
@@ -526,9 +526,9 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>만부교 사건
-1. 1361년 : 공민왕
+1. 993년 : 성종
 2. 942년 : 태조
-3. 1232년 : 고종</t>
+3. 919년 : 태조</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -541,14 +541,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>훈요 10조 저술
-1. 1280년 : 충렬왕
-2. 943년 : 태조
-3. 1193년 : 명종</t>
+1. 1367년 : 공민왕
+2. 996년 : 성종
+3. 943년 : 태조</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 943년 : 태조</t>
+          <t>3, 943년 : 태조</t>
         </is>
       </c>
     </row>
@@ -556,14 +556,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>왕규의 난
-1. 945년 : 혜종
-2. 1260년 : 고종
-3. 982년 : 성종</t>
+1. 1135년 : 인종
+2. 945년 : 혜종
+3. 1304년 : 충렬왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 945년 : 혜종</t>
+          <t>2, 945년 : 혜종</t>
         </is>
       </c>
     </row>
@@ -572,9 +572,9 @@
         <is>
           <t>서경 천도 실패
 광학보 설치
-1. 986년 : 성종
+1. 1275년 : 충렬왕
 2. 946년 : 정종
-3. 1370년 : 공민왕</t>
+3. 1129년 : 인종</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -587,14 +587,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>광군 설치
-1. 947년 : 정종
-2. 1280년 : 충렬왕
-3. 993년 : 성종</t>
+1. 1271년 : 원종
+2. 947년 : 정종
+3. 1376년 : 우왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 947년 : 정종</t>
+          <t>2, 947년 : 정종</t>
         </is>
       </c>
     </row>
@@ -602,14 +602,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>주현공부법 실시
-1. 949년 : 광종
-2. 1236년 : 고종
-3. 1029년 : 현종</t>
+1. 1099년 : 숙종
+2. 949년 : 광종
+3. 1388년 : 우왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, 949년 : 광종</t>
+          <t>2, 949년 : 광종</t>
         </is>
       </c>
     </row>
@@ -617,14 +617,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>노비안검법 실시
-1. 956년 : 광종
-2. 998년 : 목종
-3. 1389년 : 창왕</t>
+1. 1198년 : 신종
+2. 1055년 : 문종
+3. 956년 : 광종</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 956년 : 광종</t>
+          <t>3, 956년 : 광종</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         <is>
           <t>과거제 실시
 승과제도 실시
-1. 1123년 : 인종
-2. 1173년 : 명종
-3. 958년 : 광종</t>
+1. 1238년 : 고종
+2. 958년 : 광종
+3. 1049년 : 문종</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3, 958년 : 광종</t>
+          <t>2, 958년 : 광종</t>
         </is>
       </c>
     </row>
@@ -648,14 +648,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>공복 제정
-1. 960년 : 광종
-2. 1390년 : 공양왕
-3. 1377년 : 우왕</t>
+1. 949년 : 광종
+2. 960년 : 광종
+3. 1254년 : 고종</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, 960년 : 광종</t>
+          <t>2, 960년 : 광종</t>
         </is>
       </c>
     </row>
@@ -663,14 +663,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>송과 국교 수립
-1. 960년 : 광종
-2. 962년 : 광종
-3. 1260년 : 고종</t>
+1. 962년 : 광종
+2. 918년 : 태조
+3. 1253년 : 고종</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 962년 : 광종</t>
+          <t>1, 962년 : 광종</t>
         </is>
       </c>
     </row>
@@ -680,8 +680,8 @@
           <t>제위보 설치
 황무지 개간 규정 마련
 귀법사 창건
-1. 1278년 : 충렬왕
-2. 1039년 : 정종
+1. 1232년 : 고종
+2. 1389년 : 창왕
 3. 963년 : 광종</t>
         </is>
       </c>
@@ -695,14 +695,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>시정 전시과 시행
-1. 1125년 : 인종
-2. 962년 : 광종
-3. 976년 : 경종</t>
+1. 976년 : 경종
+2. 1109년 : 예종
+3. 1317년 : 충숙왕</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 976년 : 경종</t>
+          <t>1, 976년 : 경종</t>
         </is>
       </c>
     </row>
@@ -710,9 +710,9 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>최승로의 시무 28조 저술
-1. 998년 : 목종
+1. 1273년 : 원종
 2. 982년 : 성종
-3. 1241년 : 고종</t>
+3. 1011년 : 현종</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -725,8 +725,8 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>최초로 지방관 파견
-1. 1359년 : 공민왕
-2. 1232년 : 고종
+1. 1135년 : 인종
+2. 1204년 : 신종
 3. 983년 : 성종</t>
         </is>
       </c>
@@ -741,9 +741,9 @@
         <is>
           <t>의창 설치
 거란의 정안국 격파
-1. 1112년 : 예종
+1. 1370년 : 공민왕
 2. 986년 : 성종
-3. 1198년 : 신종</t>
+3. 1253년 : 고종</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -757,9 +757,9 @@
         <is>
           <t>지방 12목에 경학박사 의학박사 파견
 노비환천법 실시
-1. 1352년 : 공민왕
+1. 1176년 : 명종
 2. 987년 : 성종
-3. 1183년 : 명종</t>
+3. 1359년 : 공민왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -772,14 +772,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>비서성 수서원 설치
-1. 998년 : 목종
-2. 990년 : 성종
-3. 1298년 : 충선왕</t>
+1. 993년 : 성종
+2. 1366년 : 공민왕
+3. 990년 : 성종</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2, 990년 : 성종</t>
+          <t>3, 990년 : 성종</t>
         </is>
       </c>
     </row>
@@ -788,8 +788,8 @@
         <is>
           <t>국자감 설치 및 정비
 1. 992년 : 성종
-2. 1238년 : 고종
-3. 1359년 : 공민왕</t>
+2. 1298년 : 충선왕
+3. 919년 : 태조</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -803,8 +803,8 @@
         <is>
           <t>상평창 설치
 거란의 1차 침입 및 서희의 강동 6주 획득
-1. 1253년 : 고종
-2. 1235년 : 고종
+1. 1133년 : 인종
+2. 1352년 : 공민왕
 3. 993년 : 성종</t>
         </is>
       </c>
@@ -821,8 +821,8 @@
 문신월과법 실시
 6위 설치
 3경 체제 완성
-1. 958년 : 광종
-2. 983년 : 성종
+1. 1253년 : 고종
+2. 1259년 : 고종
 3. 995년 : 성종</t>
         </is>
       </c>
@@ -836,14 +836,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>건원중보 발행
-1. 1279년 : 충렬왕
-2. 996년 : 성종
-3. 1193년 : 명종</t>
+1. 996년 : 성종
+2. 918년 : 태조
+3. 1287년 : 충렬왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 996년 : 성종</t>
+          <t>1, 996년 : 성종</t>
         </is>
       </c>
     </row>
@@ -851,14 +851,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>개정 전시과 시행
-1. 1260년 : 고종
-2. 940년 : 태조
-3. 998년 : 목종</t>
+1. 998년 : 목종
+2. 1232년 : 고종
+3. 918년 : 태조</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3, 998년 : 목종</t>
+          <t>1, 998년 : 목종</t>
         </is>
       </c>
     </row>
@@ -866,14 +866,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>강조의 정변
-1. 1104년 : 숙종
-2. 1009년 : 목종
-3. 1219년 : 고종</t>
+1. 1009년 : 목종
+2. 945년 : 혜종
+3. 919년 : 태조</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 1009년 : 목종</t>
+          <t>1, 1009년 : 목종</t>
         </is>
       </c>
     </row>
@@ -881,14 +881,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>거란의 2차 침입
-1. 996년 : 성종
-2. 1010년 : 현종
-3. 1370년 : 공민왕</t>
+1. 1107년 : 예종
+2. 1057년 : 문종
+3. 1010년 : 현종</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 1010년 : 현종</t>
+          <t>3, 1010년 : 현종</t>
         </is>
       </c>
     </row>
@@ -896,14 +896,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>초조대장경 간행 시작
-1. 1011년 : 현종
-2. 1287년 : 충렬왕
-3. 1209년 : 희종</t>
+1. 1391년 : 공양왕
+2. 1270년 : 원종
+3. 1011년 : 현종</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 1011년 : 현종</t>
+          <t>3, 1011년 : 현종</t>
         </is>
       </c>
     </row>
@@ -911,14 +911,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>7대실록 편찬 시작
-1. 1013년 : 현종
-2. 1227년 : 고종
-3. 962년 : 광종</t>
+1. 1238년 : 고종
+2. 1372년 : 공민왕
+3. 1013년 : 현종</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1, 1013년 : 현종</t>
+          <t>3, 1013년 : 현종</t>
         </is>
       </c>
     </row>
@@ -930,14 +930,14 @@
 5도에 안찰사 파견
 거란의 3차 침입
 강감찬의 흥화진 전투
-1. 1363년 : 공민왕
-2. 1018년 : 현종
-3. 1133년 : 인종</t>
+1. 1018년 : 현종
+2. 1279년 : 충렬왕
+3. 1227년 : 고종</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 1018년 : 현종</t>
+          <t>1, 1018년 : 현종</t>
         </is>
       </c>
     </row>
@@ -945,14 +945,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>귀주대첩
-1. 1019년 : 현종
-2. 1359년 : 공민왕
-3. 1259년 : 고종</t>
+1. 1318년 : 충숙왕
+2. 1019년 : 현종
+3. 1102년 : 숙종</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1, 1019년 : 현종</t>
+          <t>2, 1019년 : 현종</t>
         </is>
       </c>
     </row>
@@ -960,14 +960,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>최치원 문창후에 추시 및 문묘에 배향
-1. 1123년 : 인종
-2. 1020년 : 현종
-3. 996년 : 성종</t>
+1. 1020년 : 현종
+2. 1013년 : 현종
+3. 1234년 : 고종</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2, 1020년 : 현종</t>
+          <t>1, 1020년 : 현종</t>
         </is>
       </c>
     </row>
@@ -975,14 +975,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>개경에 나성 축조
-1. 1029년 : 현종
-2. 1354년 : 공민왕
-3. 1125년 : 인종</t>
+1. 1363년 : 공민왕
+2. 1029년 : 현종
+3. 976년 : 경종</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1, 1029년 : 현종</t>
+          <t>2, 1029년 : 현종</t>
         </is>
       </c>
     </row>
@@ -990,14 +990,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>천리장성 축조 시작
-1. 1225년 : 고종
-2. 1033년 : 덕종
-3. 1238년 : 고종</t>
+1. 1234년 : 고종
+2. 956년 : 광종
+3. 1033년 : 덕종</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2, 1033년 : 덕종</t>
+          <t>3, 1033년 : 덕종</t>
         </is>
       </c>
     </row>
@@ -1005,14 +1005,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>7대실록 완성
-1. 1034년 : 덕종
-2. 1019년 : 현종
-3. 1347년 : 충목왕</t>
+1. 998년 : 목종
+2. 1108년 : 예종
+3. 1034년 : 덕종</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1, 1034년 : 덕종</t>
+          <t>3, 1034년 : 덕종</t>
         </is>
       </c>
     </row>
@@ -1020,9 +1020,9 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>천자수모법 실시
-1. 1049년 : 문종
+1. 1057년 : 문종
 2. 1039년 : 정종
-3. 1176년 : 명종</t>
+3. 1116년 : 예종</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1035,14 +1035,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>천리장성 완공
-1. 1104년 : 숙종
-2. 1287년 : 충렬왕
-3. 1044년 : 정종</t>
+1. 1183년 : 명종
+2. 1044년 : 정종
+3. 1363년 : 공민왕</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3, 1044년 : 정종</t>
+          <t>2, 1044년 : 정종</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>동서 대비원 설치
-1. 1049년 : 문종
-2. 1170년 : 의종
-3. 1274년 : 충렬왕</t>
+1. 1298년 : 충선왕
+2. 1049년 : 문종
+3. 1347년 : 충목왕</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1, 1049년 : 문종</t>
+          <t>2, 1049년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1065,9 +1065,9 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>최충의 9재 학당 설립
-1. 1011년 : 현종
+1. 1097년 : 숙종
 2. 1055년 : 문종
-3. 956년 : 광종</t>
+3. 1225년 : 고종</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1080,8 +1080,8 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>삼복제 실시
-1. 1275년 : 충렬왕
-2. 1253년 : 고종
+1. 986년 : 성종
+2. 1290년 : 충렬왕
 3. 1057년 : 문종</t>
         </is>
       </c>
@@ -1095,14 +1095,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>남경 설치
-1. 1067년 : 문종
-2. 1101년 : 숙종
-3. 1198년 : 신종</t>
+1. 983년 : 성종
+2. 1018년 : 현종
+3. 1067년 : 문종</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1, 1067년 : 문종</t>
+          <t>3, 1067년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1110,14 +1110,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>경정 전시과 시행
-1. 1126년 : 인종
-2. 1076년 : 문종
-3. 1317년 : 충숙왕</t>
+1. 1076년 : 문종
+2. 1388년 : 창왕
+3. 943년 : 태조</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2, 1076년 : 문종</t>
+          <t>1, 1076년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1125,14 +1125,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>기인선상법 실시
-1. 1018년 : 현종
-2. 1232년 : 고종
-3. 1077년 : 문종</t>
+1. 1280년 : 충렬왕
+2. 1077년 : 문종
+3. 1125년 : 인종</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3, 1077년 : 문종</t>
+          <t>2, 1077년 : 문종</t>
         </is>
       </c>
     </row>
@@ -1140,14 +1140,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>교장도감 설치
-1. 1217년 : 고종
-2. 1086년 : 선종
-3. 1112년 : 예종</t>
+1. 1281년 : 충렬왕
+2. 995년 : 성종
+3. 1086년 : 선종</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2, 1086년 : 선종</t>
+          <t>3, 1086년 : 선종</t>
         </is>
       </c>
     </row>
@@ -1156,8 +1156,8 @@
         <is>
           <t>주전도감 설치
 의천의 국청사 창건 및 천태종 창시
-1. 1372년 : 공민왕
-2. 1280년 : 충렬왕
+1. 963년 : 광종
+2. 1352년 : 공민왕
 3. 1097년 : 숙종</t>
         </is>
       </c>
@@ -1171,9 +1171,9 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>김위제의 건의로 남경 건설 추진
-1. 1359년 : 공민왕
+1. 1174년 : 명종
 2. 1099년 : 숙종
-3. 956년 : 광종</t>
+3. 1173년 : 명종</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1188,13 +1188,13 @@
           <t>서적포 설치
 의천의 교장 간행
 1. 1034년 : 덕종
-2. 1101년 : 숙종
-3. 1044년 : 정종</t>
+2. 1208년 : 희종
+3. 1101년 : 숙종</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2, 1101년 : 숙종</t>
+          <t>3, 1101년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1202,14 +1202,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>평양에 기자사당 건립
-1. 1352년 : 공민왕
-2. 1102년 : 숙종
-3. 1218년 : 고종</t>
+1. 1218년 : 고종
+2. 1129년 : 인종
+3. 1102년 : 숙종</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2, 1102년 : 숙종</t>
+          <t>3, 1102년 : 숙종</t>
         </is>
       </c>
     </row>
@@ -1217,9 +1217,9 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>윤관 별무반 조직
-1. 946년 : 정종
+1. 1039년 : 정종
 2. 1104년 : 숙종
-3. 1281년 : 충렬왕</t>
+3. 1044년 : 정종</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1232,14 +1232,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>별무반의 여진 정벌
-1. 1107년 : 예종
-2. 1170년 : 의종
-3. 1209년 : 희종</t>
+1. 1235년 : 고종
+2. 1107년 : 예종
+3. 1029년 : 현종</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1, 1107년 : 예종</t>
+          <t>2, 1107년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1247,9 +1247,9 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>동북 9성 축조
-1. 1057년 : 문종
+1. 1380년 : 우왕
 2. 1108년 : 예종
-3. 1388년 : 우왕</t>
+3. 1254년 : 고종</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1264,8 +1264,8 @@
           <t>동북 9성 여진에 반환
 관학 7재 설치
 구제도감 설치
-1. 1067년 : 문종
-2. 1086년 : 선종
+1. 1362년 : 공민왕
+2. 1174년 : 명종
 3. 1109년 : 예종</t>
         </is>
       </c>
@@ -1279,14 +1279,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>혜민국 설치
-1. 1116년 : 예종
-2. 1112년 : 예종
-3. 1182년 : 명종</t>
+1. 1010년 : 현종
+2. 918년 : 태조
+3. 1112년 : 예종</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2, 1112년 : 예종</t>
+          <t>3, 1112년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1294,14 +1294,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>청연각 보문각 설치
-1. 1009년 : 목종
-2. 1116년 : 예종
-3. 962년 : 광종</t>
+1. 1116년 : 예종
+2. 1170년 : 의종
+3. 1010년 : 현종</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2, 1116년 : 예종</t>
+          <t>1, 1116년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1309,14 +1309,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>양현고 설치
-1. 1119년 : 예종
-2. 1034년 : 덕종
-3. 1127년 : 인종</t>
+1. 1236년 : 고종
+2. 1119년 : 예종
+3. 1018년 : 현종</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1, 1119년 : 예종</t>
+          <t>2, 1119년 : 예종</t>
         </is>
       </c>
     </row>
@@ -1324,8 +1324,8 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>송나라 서긍의 고려도경 저술
-1. 1182년 : 명종
-2. 1270년 : 원종
+1. 996년 : 성종
+2. 1127년 : 인종
 3. 1123년 : 인종</t>
         </is>
       </c>
@@ -1339,14 +1339,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>이자겸의 금 사대관계 수용
-1. 1209년 : 희종
-2. 936년 : 태조
-3. 1125년 : 인종</t>
+1. 1274년 : 원종
+2. 1125년 : 인종
+3. 1388년 : 창왕</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3, 1125년 : 인종</t>
+          <t>2, 1125년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1354,9 +1354,9 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>이자겸의 난
-1. 949년 : 광종
+1. 1280년 : 충렬왕
 2. 1126년 : 인종
-3. 1133년 : 인종</t>
+3. 983년 : 성종</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1369,9 +1369,9 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>유신지교 15조 발표
-1. 1198년 : 신종
+1. 1314년 : 충숙왕
 2. 1127년 : 인종
-3. 1183년 : 명종</t>
+3. 1356년 : 공민왕</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1384,14 +1384,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>서경에 대화궁 건립
-1. 1129년 : 인종
-2. 1044년 : 정종
-3. 1011년 : 현종</t>
+1. 1013년 : 현종
+2. 1129년 : 인종
+3. 983년 : 성종</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1, 1129년 : 인종</t>
+          <t>2, 1129년 : 인종</t>
         </is>
       </c>
     </row>
@@ -1399,8 +1399,8 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>무학재 및 무과 폐지
-1. 1273년 : 원종
-2. 1241년 : 고종
+1. 1010년 : 현종
+2. 1196년 : 명종
 3. 1133년 : 인종</t>
         </is>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>묘청의 서경 천도 운동
-1. 1280년 : 충렬왕
-2. 1145년 : 인종
+1. 976년 : 경종
+2. 1104년 : 숙종
 3. 1135년 : 인종</t>
         </is>
       </c>
@@ -1430,8 +1430,8 @@
         <is>
           <t>김부식의 삼국사기 편찬
 1. 1145년 : 인종
-2. 1097년 : 숙종
-3. 1011년 : 현종</t>
+2. 1109년 : 예종
+3. 1238년 : 고종</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1445,8 +1445,8 @@
         <is>
           <t>이의방 정중부의 무신정변 발발
 1. 1170년 : 의종
-2. 1392년 : 공양왕
-3. 1179년 : 명종</t>
+2. 1044년 : 정종
+3. 1389년 : 창왕</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1459,14 +1459,14 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>김보당의 난
-1. 1367년 : 공민왕
-2. 936년 : 태조
-3. 1173년 : 명종</t>
+1. 1176년 : 명종
+2. 1173년 : 명종
+3. 1275년 : 충렬왕</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3, 1173년 : 명종</t>
+          <t>2, 1173년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1476,14 +1476,14 @@
           <t>귀법사 흥왕사 왕륜사 증광사 봉기
 조위총의 난
 정중부 집권
-1. 1281년 : 충렬왕
-2. 1198년 : 신종
-3. 1174년 : 명종</t>
+1. 918년 : 태조
+2. 1174년 : 명종
+3. 1260년 : 고종</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3, 1174년 : 명종</t>
+          <t>2, 1174년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1491,14 +1491,14 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>망이 망소이의 난
-1. 1176년 : 명종
-2. 990년 : 성종
-3. 1013년 : 현종</t>
+1. 1202년 : 신종
+2. 1176년 : 명종
+3. 1238년 : 고종</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1, 1176년 : 명종</t>
+          <t>2, 1176년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1506,14 +1506,14 @@
       <c r="A71" t="inlineStr">
         <is>
           <t>경대승 집권
-1. 1202년 : 신종
-2. 1179년 : 명종
-3. 1390년 : 공양왕</t>
+1. 1209년 : 희종
+2. 1278년 : 충렬왕
+3. 1179년 : 명종</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2, 1179년 : 명종</t>
+          <t>3, 1179년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1521,14 +1521,14 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>전주 관노의 난
-1. 1182년 : 명종
-2. 946년 : 정종
-3. 1279년 : 충렬왕</t>
+1. 1183년 : 명종
+2. 1182년 : 명종
+3. 1253년 : 고종</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1, 1182년 : 명종</t>
+          <t>2, 1182년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1536,14 +1536,14 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>이의민 집권
-1. 1209년 : 희종
-2. 976년 : 경종
-3. 1183년 : 명종</t>
+1. 1273년 : 원종
+2. 1183년 : 명종
+3. 983년 : 성종</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3, 1183년 : 명종</t>
+          <t>2, 1183년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1552,14 +1552,14 @@
         <is>
           <t>김사미 효심의 난
 이규보의 동명왕편 편찬
-1. 1193년 : 명종
-2. 1209년 : 희종
-3. 976년 : 경종</t>
+1. 958년 : 광종
+2. 1318년 : 충숙왕
+3. 1193년 : 명종</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1, 1193년 : 명종</t>
+          <t>3, 1193년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1568,14 +1568,14 @@
         <is>
           <t>최충헌 집권
 최충헌의 봉사 10조 저술
-1. 1234년 : 고종
-2. 1196년 : 명종
-3. 918년 : 태조</t>
+1. 1133년 : 인종
+2. 947년 : 정종
+3. 1196년 : 명종</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2, 1196년 : 명종</t>
+          <t>3, 1196년 : 명종</t>
         </is>
       </c>
     </row>
@@ -1583,8 +1583,8 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>만적의 난
-1. 1388년 : 창왕
-2. 982년 : 성종
+1. 1258년 : 고종
+2. 990년 : 성종
 3. 1198년 : 신종</t>
         </is>
       </c>
@@ -1598,14 +1598,14 @@
       <c r="A77" t="inlineStr">
         <is>
           <t>최충헌의 도방 재건 및 확대
-1. 1309년 : 충선왕
-2. 1200년 : 신종
-3. 1392년 : 공양왕</t>
+1. 1200년 : 신종
+2. 947년 : 정종
+3. 1298년 : 충선왕</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2, 1200년 : 신종</t>
+          <t>1, 1200년 : 신종</t>
         </is>
       </c>
     </row>
@@ -1613,14 +1613,14 @@
       <c r="A78" t="inlineStr">
         <is>
           <t>이비 패좌의 난
-1. 1202년 : 신종
-2. 1145년 : 인종
-3. 1356년 : 공민왕</t>
+1. 1183년 : 명종
+2. 1202년 : 신종
+3. 1119년 : 예종</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1, 1202년 : 신종</t>
+          <t>2, 1202년 : 신종</t>
         </is>
       </c>
     </row>
@@ -1628,14 +1628,14 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>지눌의 수선사 결사 운동
-1. 1204년 : 신종
-2. 1198년 : 신종
-3. 1287년 : 충렬왕</t>
+1. 1367년 : 공민왕
+2. 1204년 : 신종
+3. 1104년 : 숙종</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1, 1204년 : 신종</t>
+          <t>2, 1204년 : 신종</t>
         </is>
       </c>
     </row>
@@ -1643,14 +1643,14 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>요세의 백련사 결사 운동
-1. 1086년 : 선종
-2. 1208년 : 희종
-3. 1352년 : 공민왕</t>
+1. 1097년 : 숙종
+2. 1280년 : 충렬왕
+3. 1208년 : 희종</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2, 1208년 : 희종</t>
+          <t>3, 1208년 : 희종</t>
         </is>
       </c>
     </row>
@@ -1658,8 +1658,8 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>최충헌의 교정도감 설치
-1. 1067년 : 문종
-2. 1388년 : 우왕
+1. 1270년 : 원종
+2. 1176년 : 명종
 3. 1209년 : 희종</t>
         </is>
       </c>
@@ -1674,14 +1674,14 @@
         <is>
           <t>최광수의 난
 대요수국 1차 침입
-1. 1217년 : 고종
-2. 963년 : 광종
-3. 1198년 : 신종</t>
+1. 1018년 : 현종
+2. 1217년 : 고종
+3. 1234년 : 고종</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1, 1217년 : 고종</t>
+          <t>2, 1217년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1689,14 +1689,14 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>대요수국 2차 침입
-1. 995년 : 성종
-2. 1218년 : 고종
-3. 1388년 : 창왕</t>
+1. 1218년 : 고종
+2. 1227년 : 고종
+3. 1029년 : 현종</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2, 1218년 : 고종</t>
+          <t>1, 1218년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1706,14 +1706,14 @@
           <t>강동의 역
 여몽협약
 최우 집권
-1. 1020년 : 현종
-2. 1125년 : 인종
-3. 1219년 : 고종</t>
+1. 1173년 : 명종
+2. 1219년 : 고종
+3. 1077년 : 문종</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3, 1219년 : 고종</t>
+          <t>2, 1219년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1722,14 +1722,14 @@
         <is>
           <t>몽골 사신 저고여 피살
 최우 정방 설치
-1. 1009년 : 목종
-2. 1225년 : 고종
-3. 1173년 : 명종</t>
+1. 1225년 : 고종
+2. 1219년 : 고종
+3. 1388년 : 창왕</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2, 1225년 : 고종</t>
+          <t>1, 1225년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       <c r="A86" t="inlineStr">
         <is>
           <t>최우 서방 설치
-1. 1370년 : 공민왕
-2. 1174년 : 명종
-3. 1227년 : 고종</t>
+1. 1354년 : 공민왕
+2. 1227년 : 고종
+3. 940년 : 태조</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3, 1227년 : 고종</t>
+          <t>2, 1227년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1752,14 +1752,14 @@
       <c r="A87" t="inlineStr">
         <is>
           <t>몽골의 1차 침입 박서의 귀주성 전투 지광수의 다인철소 전투
-1. 1055년 : 문종
-2. 1193년 : 명종
-3. 1231년 : 고종</t>
+1. 1370년 : 공민왕
+2. 1231년 : 고종
+3. 1377년 : 우왕</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3, 1231년 : 고종</t>
+          <t>2, 1231년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1769,14 +1769,14 @@
           <t>최우의 강화도 천도
 몽골의 2차 침입 김윤후의 처인성 전투
 초조대장경 및 교장 소실
-1. 1232년 : 고종
-2. 1010년 : 현종
-3. 1112년 : 예종</t>
+1. 1101년 : 숙종
+2. 1391년 : 공양왕
+3. 1232년 : 고종</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1, 1232년 : 고종</t>
+          <t>3, 1232년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1784,14 +1784,14 @@
       <c r="A89" t="inlineStr">
         <is>
           <t>상정고금예문 인쇄
-1. 1234년 : 고종
-2. 1301년 : 충렬왕
-3. 1209년 : 희종</t>
+1. 1101년 : 숙종
+2. 1304년 : 충렬왕
+3. 1234년 : 고종</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1, 1234년 : 고종</t>
+          <t>3, 1234년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1800,14 +1800,14 @@
         <is>
           <t>몽골의 3차 침입 
 재조대장경 간행 시작
-1. 1235년 : 고종
-2. 1145년 : 인종
-3. 1317년 : 충숙왕</t>
+1. 1135년 : 인종
+2. 1235년 : 고종
+3. 1273년 : 원종</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1, 1235년 : 고종</t>
+          <t>2, 1235년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1815,14 +1815,14 @@
       <c r="A91" t="inlineStr">
         <is>
           <t>향약구급방 간행
-1. 1236년 : 고종
-2. 1318년 : 충숙왕
-3. 1034년 : 덕종</t>
+1. 1383년 : 우왕
+2. 1236년 : 고종
+3. 1359년 : 공민왕</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1, 1236년 : 고종</t>
+          <t>2, 1236년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1830,14 @@
       <c r="A92" t="inlineStr">
         <is>
           <t>이연년의 난
-1. 993년 : 성종
-2. 1237년 : 고종
-3. 1275년 : 충렬왕</t>
+1. 942년 : 태조
+2. 1290년 : 충렬왕
+3. 1237년 : 고종</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2, 1237년 : 고종</t>
+          <t>3, 1237년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1845,8 +1845,8 @@
       <c r="A93" t="inlineStr">
         <is>
           <t>황룡사 및 황룡사 9층 목탑 소실
-1. 983년 : 성종
-2. 1274년 : 원종
+1. 982년 : 성종
+2. 942년 : 태조
 3. 1238년 : 고종</t>
         </is>
       </c>
@@ -1860,8 +1860,8 @@
       <c r="A94" t="inlineStr">
         <is>
           <t>이규보의 동국이상국집 편찬
-1. 1278년 : 충렬왕
-2. 1219년 : 고종
+1. 1274년 : 충렬왕
+2. 1287년 : 충렬왕
 3. 1241년 : 고종</t>
         </is>
       </c>
@@ -1875,14 +1875,14 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>몽골의 5차 침입 및 김윤후 충주에서 몽골 격퇴
-1. 1253년 : 고종
-2. 1076년 : 문종
-3. 1274년 : 원종</t>
+1. 1102년 : 숙종
+2. 1253년 : 고종
+3. 1010년 : 현종</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1, 1253년 : 고종</t>
+          <t>2, 1253년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
       <c r="A96" t="inlineStr">
         <is>
           <t>몽골의 6차 침입 및 충주 다인철소 전투
-1. 1317년 : 충숙왕
-2. 1254년 : 고종
-3. 1107년 : 예종</t>
+1. 1273년 : 원종
+2. 1352년 : 공민왕
+3. 1254년 : 고종</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2, 1254년 : 고종</t>
+          <t>3, 1254년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <is>
           <t>최의 피살 및 최씨정권 붕괴
 쌍성총관부 설치
-1. 1258년 : 고종
-2. 1193년 : 명종
-3. 1390년 : 공양왕</t>
+1. 1254년 : 고종
+2. 1202년 : 신종
+3. 1258년 : 고종</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1, 1258년 : 고종</t>
+          <t>3, 1258년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1921,9 +1921,9 @@
       <c r="A98" t="inlineStr">
         <is>
           <t>몽골과 강화 체결
-1. 1367년 : 공민왕
+1. 1034년 : 덕종
 2. 1259년 : 고종
-3. 1013년 : 현종</t>
+3. 1253년 : 고종</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1936,14 +1936,14 @@
       <c r="A99" t="inlineStr">
         <is>
           <t>원 세조 고려에 불개토풍 원칙 선언
-1. 1279년 : 충렬왕
-2. 1260년 : 고종
-3. 982년 : 성종</t>
+1. 1013년 : 현종
+2. 1076년 : 문종
+3. 1260년 : 고종</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2, 1260년 : 고종</t>
+          <t>3, 1260년 : 고종</t>
         </is>
       </c>
     </row>
@@ -1954,8 +1954,8 @@
 동녕부 설치
 삼별초 항쟁
 1. 1270년 : 원종
-2. 1055년 : 문종
-3. 1354년 : 공민왕</t>
+2. 1352년 : 공민왕
+3. 1388년 : 창왕</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1968,14 +1968,14 @@
       <c r="A101" t="inlineStr">
         <is>
           <t>녹과전 실시
-1. 1271년 : 원종
-2. 1055년 : 문종
-3. 1301년 : 충렬왕</t>
+1. 1356년 : 공민왕
+2. 987년 : 성종
+3. 1271년 : 원종</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1, 1271년 : 원종</t>
+          <t>3, 1271년 : 원종</t>
         </is>
       </c>
     </row>
@@ -1983,8 +1983,8 @@
       <c r="A102" t="inlineStr">
         <is>
           <t>탐라총관부 설치
-1. 1009년 : 목종
-2. 1044년 : 정종
+1. 1029년 : 현종
+2. 1102년 : 숙종
 3. 1273년 : 원종</t>
         </is>
       </c>
@@ -1998,14 +1998,14 @@
       <c r="A103" t="inlineStr">
         <is>
           <t>결혼도감 설치
-1. 1107년 : 예종
-2. 1274년 : 원종
-3. 940년 : 태조</t>
+1. 1275년 : 충렬왕
+2. 960년 : 광종
+3. 1274년 : 원종</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2, 1274년 : 원종</t>
+          <t>3, 1274년 : 원종</t>
         </is>
       </c>
     </row>
@@ -2013,14 +2013,14 @@
       <c r="A104" t="inlineStr">
         <is>
           <t>원나라의 1차 일본 원정
-1. 1013년 : 현종
-2. 1033년 : 덕종
-3. 1274년 : 충렬왕</t>
+1. 992년 : 성종
+2. 1274년 : 충렬왕
+3. 1318년 : 충숙왕</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3, 1274년 : 충렬왕</t>
+          <t>2, 1274년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2028,14 +2028,14 @@
       <c r="A105" t="inlineStr">
         <is>
           <t>국자감을 국학으로 개칭
-1. 1392년 : 공양왕
-2. 1275년 : 충렬왕
-3. 1145년 : 인종</t>
+1. 1241년 : 고종
+2. 1133년 : 인종
+3. 1275년 : 충렬왕</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2, 1275년 : 충렬왕</t>
+          <t>3, 1275년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2043,14 +2043,14 @@
       <c r="A106" t="inlineStr">
         <is>
           <t>지원보초 유통
-1. 1314년 : 충숙왕
-2. 943년 : 태조
-3. 1278년 : 충렬왕</t>
+1. 1278년 : 충렬왕
+2. 1193년 : 명종
+3. 1116년 : 예종</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3, 1278년 : 충렬왕</t>
+          <t>1, 1278년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2058,14 @@
       <c r="A107" t="inlineStr">
         <is>
           <t>도병마사 도평의사사로 개칭
-1. 1298년 : 충선왕
-2. 1279년 : 충렬왕
-3. 1258년 : 고종</t>
+1. 1279년 : 충렬왕
+2. 1253년 : 고종
+3. 1389년 : 창왕</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2, 1279년 : 충렬왕</t>
+          <t>1, 1279년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2074,8 +2074,8 @@
         <is>
           <t>원나라의 정동행성 설치
 1. 1280년 : 충렬왕
-2. 1275년 : 충렬왕
-3. 1352년 : 공민왕</t>
+2. 1234년 : 고종
+3. 958년 : 광종</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2090,14 +2090,14 @@
           <t>원나라의 2차 일본 원정
 원나라의 만호부 설치
 일연 삼국유사 편찬
-1. 1278년 : 충렬왕
-2. 1281년 : 충렬왕
-3. 1227년 : 고종</t>
+1. 1317년 : 충숙왕
+2. 1258년 : 고종
+3. 1281년 : 충렬왕</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2, 1281년 : 충렬왕</t>
+          <t>3, 1281년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2105,8 +2105,8 @@
       <c r="A110" t="inlineStr">
         <is>
           <t>이승휴 제왕운기 저술
-1. 1234년 : 고종
-2. 1275년 : 충렬왕
+1. 918년 : 태조
+2. 992년 : 성종
 3. 1287년 : 충렬왕</t>
         </is>
       </c>
@@ -2121,14 +2121,14 @@
         <is>
           <t>동녕부 수복
 안향 성리학 전래
-1. 1237년 : 고종
-2. 1290년 : 충렬왕
-3. 1304년 : 충렬왕</t>
+1. 1274년 : 충렬왕
+2. 986년 : 성종
+3. 1290년 : 충렬왕</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2, 1290년 : 충렬왕</t>
+          <t>3, 1290년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2137,8 +2137,8 @@
         <is>
           <t>정방 폐지(충선왕)
 사림원 설치
-1. 1279년 : 충렬왕
-2. 949년 : 광종
+1. 1173년 : 명종
+2. 1097년 : 숙종
 3. 1298년 : 충선왕</t>
         </is>
       </c>
@@ -2152,14 +2152,14 @@
       <c r="A113" t="inlineStr">
         <is>
           <t>탐라총관부 수복
-1. 1034년 : 덕종
-2. 1301년 : 충렬왕
-3. 1099년 : 숙종</t>
+1. 1389년 : 창왕
+2. 962년 : 광종
+3. 1301년 : 충렬왕</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2, 1301년 : 충렬왕</t>
+          <t>3, 1301년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2167,14 +2167,14 @@
       <c r="A114" t="inlineStr">
         <is>
           <t>섬학전 마련
-1. 1304년 : 충렬왕
-2. 1133년 : 인종
-3. 1357년 : 공민왕</t>
+1. 1352년 : 공민왕
+2. 1304년 : 충렬왕
+3. 1145년 : 인종</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1, 1304년 : 충렬왕</t>
+          <t>2, 1304년 : 충렬왕</t>
         </is>
       </c>
     </row>
@@ -2183,14 +2183,14 @@
         <is>
           <t>충선왕 복위교서 발표
 국학을 성균관으로 개칭
-1. 1232년 : 고종
-2. 940년 : 태조
-3. 1308년 : 충선왕</t>
+1. 1308년 : 충선왕
+2. 1388년 : 우왕
+3. 1033년 : 덕종</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3, 1308년 : 충선왕</t>
+          <t>1, 1308년 : 충선왕</t>
         </is>
       </c>
     </row>
@@ -2199,14 +2199,14 @@
         <is>
           <t>소금 전매제 실시
 입성책동 발생
-1. 1388년 : 창왕
-2. 1309년 : 충선왕
-3. 918년 : 태조</t>
+1. 1275년 : 충렬왕
+2. 1013년 : 현종
+3. 1309년 : 충선왕</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2, 1309년 : 충선왕</t>
+          <t>3, 1309년 : 충선왕</t>
         </is>
       </c>
     </row>
@@ -2214,14 +2214,14 @@
       <c r="A117" t="inlineStr">
         <is>
           <t>충선왕 원나라에 만권당 설치
-1. 1314년 : 충숙왕
-2. 1270년 : 원종
-3. 1279년 : 충렬왕</t>
+1. 1238년 : 고종
+2. 1314년 : 충숙왕
+3. 1392년 : 공양왕</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1, 1314년 : 충숙왕</t>
+          <t>2, 1314년 : 충숙왕</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2229,14 @@
       <c r="A118" t="inlineStr">
         <is>
           <t>민지 본조편년강목 저술
-1. 1298년 : 충선왕
-2. 1145년 : 인종
-3. 1317년 : 충숙왕</t>
+1. 942년 : 태조
+2. 1317년 : 충숙왕
+3. 945년 : 혜종</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3, 1317년 : 충숙왕</t>
+          <t>2, 1317년 : 충숙왕</t>
         </is>
       </c>
     </row>
@@ -2245,14 +2245,14 @@
         <is>
           <t>찰리변위도감 설치
 사심관제도 폐지
-1. 1318년 : 충숙왕
-2. 1209년 : 희종
-3. 1204년 : 신종</t>
+1. 1204년 : 신종
+2. 1352년 : 공민왕
+3. 1318년 : 충숙왕</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1, 1318년 : 충숙왕</t>
+          <t>3, 1318년 : 충숙왕</t>
         </is>
       </c>
     </row>
@@ -2261,8 +2261,8 @@
         <is>
           <t>정치도감 설치
 1. 1347년 : 충목왕
-2. 986년 : 성종
-3. 943년 : 태조</t>
+2. 1231년 : 고종
+3. 1076년 : 문종</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2276,14 +2276,14 @@
         <is>
           <t>몽골풍 폐지
 정방 폐지(공민왕)
-1. 1298년 : 충선왕
-2. 1029년 : 현종
-3. 1352년 : 공민왕</t>
+1. 1352년 : 공민왕
+2. 1376년 : 우왕
+3. 982년 : 성종</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3, 1352년 : 공민왕</t>
+          <t>1, 1352년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2291,14 +2291,14 @@
       <c r="A122" t="inlineStr">
         <is>
           <t>참설직 설치
-1. 945년 : 혜종
-2. 946년 : 정종
-3. 1354년 : 공민왕</t>
+1. 1354년 : 공민왕
+2. 919년 : 태조
+3. 1362년 : 공민왕</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3, 1354년 : 공민왕</t>
+          <t>1, 1354년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2309,14 +2309,14 @@
 정동행성 이문소 폐지
 쌍성총관부 탈환
 원나라 연호 폐지 및 관제 복구
-1. 1298년 : 충선왕
-2. 1356년 : 공민왕
-3. 919년 : 태조</t>
+1. 1356년 : 공민왕
+2. 1102년 : 숙종
+3. 1108년 : 예종</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2, 1356년 : 공민왕</t>
+          <t>1, 1356년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2324,8 +2324,8 @@
       <c r="A124" t="inlineStr">
         <is>
           <t>이제현 역사서 사략 저술
-1. 1127년 : 인종
-2. 1314년 : 충숙왕
+1. 1116년 : 예종
+2. 949년 : 광종
 3. 1357년 : 공민왕</t>
         </is>
       </c>
@@ -2339,14 +2339,14 @@
       <c r="A125" t="inlineStr">
         <is>
           <t>홍건적의 1차 침입 및 서경 함락
-1. 1301년 : 충렬왕
-2. 1019년 : 현종
-3. 1359년 : 공민왕</t>
+1. 1359년 : 공민왕
+2. 1033년 : 덕종
+3. 1273년 : 원종</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3, 1359년 : 공민왕</t>
+          <t>1, 1359년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2354,14 +2354,14 @@
       <c r="A126" t="inlineStr">
         <is>
           <t>홍건적의 2차 침입 및 개경 함락
-1. 1372년 : 공민왕
-2. 1361년 : 공민왕
-3. 1179년 : 명종</t>
+1. 1354년 : 공민왕
+2. 1275년 : 충렬왕
+3. 1361년 : 공민왕</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2, 1361년 : 공민왕</t>
+          <t>3, 1361년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2369,14 +2369,14 @@
       <c r="A127" t="inlineStr">
         <is>
           <t>정세운 이방실 개경 수복
-1. 1304년 : 충렬왕
-2. 1362년 : 공민왕
-3. 1301년 : 충렬왕</t>
+1. 1362년 : 공민왕
+2. 919년 : 태조
+3. 1010년 : 현종</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2, 1362년 : 공민왕</t>
+          <t>1, 1362년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2384,14 +2384,14 @@
       <c r="A128" t="inlineStr">
         <is>
           <t>흥왕사의 변
-1. 1231년 : 고종
-2. 1010년 : 현종
-3. 1363년 : 공민왕</t>
+1. 1363년 : 공민왕
+2. 990년 : 성종
+3. 1010년 : 현종</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3, 1363년 : 공민왕</t>
+          <t>1, 1363년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2399,14 +2399,14 @@
       <c r="A129" t="inlineStr">
         <is>
           <t>전민변정도감 재설치
-1. 1366년 : 공민왕
-2. 1279년 : 충렬왕
-3. 1108년 : 예종</t>
+1. 1383년 : 우왕
+2. 1366년 : 공민왕
+3. 1198년 : 신종</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1, 1366년 : 공민왕</t>
+          <t>2, 1366년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2416,8 +2416,8 @@
           <t>성균관 순수 유학교육기관으로 개편
 신진 사대부 등용 위한 과거제 정비
 1. 1367년 : 공민왕
-2. 1304년 : 충렬왕
-3. 1109년 : 예종</t>
+2. 1234년 : 고종
+3. 1274년 : 원종</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2431,14 +2431,14 @@
         <is>
           <t>명나라 역법인 태통력 채용
 이성계의 요동 공격으로 요양 일시 점령
-1. 1108년 : 예종
-2. 1287년 : 충렬왕
-3. 1370년 : 공민왕</t>
+1. 1370년 : 공민왕
+2. 1254년 : 고종
+3. 960년 : 광종</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3, 1370년 : 공민왕</t>
+          <t>1, 1370년 : 공민왕</t>
         </is>
       </c>
     </row>
@@ -2446,9 +2446,9 @@
       <c r="A132" t="inlineStr">
         <is>
           <t>자제위 설치
-1. 1298년 : 충선왕
+1. 918년 : 태조
 2. 1372년 : 공민왕
-3. 1380년 : 우왕</t>
+3. 942년 : 태조</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2461,8 +2461,8 @@
       <c r="A133" t="inlineStr">
         <is>
           <t>최영의 홍산대첩
-1. 1377년 : 우왕
-2. 1270년 : 원종
+1. 1278년 : 충렬왕
+2. 1108년 : 예종
 3. 1376년 : 우왕</t>
         </is>
       </c>
@@ -2477,8 +2477,8 @@
         <is>
           <t>직지심체요절 간행
 화통도감 설치
-1. 1196년 : 명종
-2. 1238년 : 고종
+1. 1123년 : 인종
+2. 1391년 : 공양왕
 3. 1377년 : 우왕</t>
         </is>
       </c>
@@ -2493,9 +2493,9 @@
         <is>
           <t>최무선의 진포대첩
 이성계의 황산대첩
-1. 1198년 : 신종
+1. 1372년 : 공민왕
 2. 1380년 : 우왕
-3. 1039년 : 정종</t>
+3. 1116년 : 예종</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2508,8 +2508,8 @@
       <c r="A136" t="inlineStr">
         <is>
           <t>정지의 관음포 대첩
-1. 1227년 : 고종
-2. 1217년 : 고종
+1. 1304년 : 충렬왕
+2. 1235년 : 고종
 3. 1383년 : 우왕</t>
         </is>
       </c>
@@ -2525,14 +2525,14 @@
           <t>최영의 이인임 일파 축출
 명의 철령위 설치 통보
 위화도 회군
-1. 1219년 : 고종
-2. 1390년 : 공양왕
-3. 1388년 : 우왕</t>
+1. 1362년 : 공민왕
+2. 1388년 : 우왕
+3. 930년 : 태조</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3, 1388년 : 우왕</t>
+          <t>2, 1388년 : 우왕</t>
         </is>
       </c>
     </row>
@@ -2540,9 +2540,9 @@
       <c r="A138" t="inlineStr">
         <is>
           <t>정방 최종 폐지
-1. 1179년 : 명종
+1. 1367년 : 공민왕
 2. 1388년 : 창왕
-3. 1039년 : 정종</t>
+3. 990년 : 성종</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2556,14 +2556,14 @@
         <is>
           <t>박위의 쓰시마 토벌
 이성계의 창왕 폐위
-1. 1236년 : 고종
-2. 1225년 : 고종
-3. 1389년 : 창왕</t>
+1. 1389년 : 창왕
+2. 963년 : 광종
+3. 1127년 : 인종</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3, 1389년 : 창왕</t>
+          <t>1, 1389년 : 창왕</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2571,14 @@
       <c r="A140" t="inlineStr">
         <is>
           <t>도평의사사 건의로 무과 설치
-1. 1390년 : 공양왕
-2. 993년 : 성종
-3. 1234년 : 고종</t>
+1. 1363년 : 공민왕
+2. 1390년 : 공양왕
+3. 960년 : 광종</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1, 1390년 : 공양왕</t>
+          <t>2, 1390년 : 공양왕</t>
         </is>
       </c>
     </row>
@@ -2589,8 +2589,8 @@
 과전법 실시
 저화 발행
 삼군도총제부 설치
-1. 1182년 : 명종
-2. 1217년 : 고종
+1. 1271년 : 원종
+2. 993년 : 성종
 3. 1391년 : 공양왕</t>
         </is>
       </c>
@@ -2606,14 +2606,14 @@
           <t>서적원 설치
 정몽주 암살
 고려 멸망
-1. 1301년 : 충렬왕
-2. 1392년 : 공양왕
-3. 1123년 : 인종</t>
+1. 1392년 : 공양왕
+2. 1237년 : 고종
+3. 1204년 : 신종</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2, 1392년 : 공양왕</t>
+          <t>1, 1392년 : 공양왕</t>
         </is>
       </c>
     </row>
